--- a/biology/Botanique/Meconopsis/Meconopsis.xlsx
+++ b/biology/Botanique/Meconopsis/Meconopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Meconopsis est un genre de plantes vivaces de la famille des Papaveraceae. Le botaniste français L.G.A. Viguier est le premier à employer ce terme et à décrire ce genre[1] dans sa thèse Histoire naturelle, médicale et économique des pavots et des argémones[2]. L'espèce type est Meconopsis cambrica. Toutes les autres espèces, une cinquantaine, sont originaires de l'Himalaya et des montagnes de l'extrême ouest de la Chine. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Meconopsis est un genre de plantes vivaces de la famille des Papaveraceae. Le botaniste français L.G.A. Viguier est le premier à employer ce terme et à décrire ce genre dans sa thèse Histoire naturelle, médicale et économique des pavots et des argémones. L'espèce type est Meconopsis cambrica. Toutes les autres espèces, une cinquantaine, sont originaires de l'Himalaya et des montagnes de l'extrême ouest de la Chine. 
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (8 juin 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (8 juin 2018) :
 Meconopsis aculeata Royle
 Meconopsis argemonantha Prain
 Meconopsis autumnalis P.A.Egan
@@ -621,7 +637,7 @@
 Meconopsis yaoshanensis Tosh.Yoshida, H.Sun &amp; Boufford
 Meconopsis zangnanensis L.H. Zhou
 Meconopsis zhongdianensis Grey-Wilson
-Selon GRIN            (7 août 2014)[4] :
+Selon GRIN            (7 août 2014) :
 Meconopsis aculeata Royle
 Meconopsis betonicifolia Franch.
 Meconopsis cambrica (L.) Vig.
@@ -647,7 +663,7 @@
 Meconopsis sinuata Prain
 Meconopsis speciosa Prain
 Meconopsis venusta Prain
-Selon The Plant List            (7 août 2014)[5] :
+Selon The Plant List            (7 août 2014) :
 Meconopsis aculeata Royle
 Meconopsis argemonantha Prain
 Meconopsis barbiseta C.Y. Wu &amp; H. Chuang ex L.H. Zhou
@@ -693,7 +709,7 @@
 Meconopsis wilsonii Grey-Wilson
 Meconopsis wumungensis K.M. Feng &amp; H. Chuang
 Meconopsis zangnanensis L.H. Zhou
-Selon Tropicos                                           (7 août 2014)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 Meconopsis aculeata Royle
 Meconopsis argemonantha Prain
 Meconopsis baileyi Prain
